--- a/Relasi.xlsx
+++ b/Relasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_2_3</t>
+          <t xml:space="preserve"> Atribut_12_10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_10</t>
         </is>
       </c>
     </row>
@@ -481,17 +481,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_1_3</t>
+          <t xml:space="preserve"> Atribut_14_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_3_1</t>
+          <t xml:space="preserve"> Atribut_0_9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_4</t>
+          <t xml:space="preserve"> Atribut_8_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_4_1</t>
+          <t xml:space="preserve"> Atribut_9_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_0</t>
+          <t xml:space="preserve"> Atribut_12_13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_13</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_4_4</t>
+          <t xml:space="preserve"> Atribut_11_4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_3_4</t>
+          <t xml:space="preserve"> Atribut_4_4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,17 +621,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_2_4</t>
+          <t xml:space="preserve"> Atribut_10_14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_14</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_1_4</t>
+          <t xml:space="preserve"> Atribut_0_12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_12</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_2_2</t>
+          <t xml:space="preserve"> Atribut_2_14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_14</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_1_2</t>
+          <t xml:space="preserve"> Atribut_7_1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Tabel_7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Tabel_1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_3_2</t>
+          <t xml:space="preserve"> Atribut_5_13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_13</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_1_0</t>
+          <t xml:space="preserve"> Atribut_9_8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_1</t>
+          <t xml:space="preserve"> Atribut_1_8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_4_3</t>
+          <t xml:space="preserve"> Atribut_8_2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
     </row>
@@ -781,15 +781,695 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Atribut_10_9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_5_5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_11_13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_6_9</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_14_12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_2_9</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_13_12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_7_10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_6_1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_12_3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_2_12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_4_8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_0_2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_1_6</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_8_11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_9_9</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_5_14</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_13_4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_3_13</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_4_11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_0_5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_10_10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_9_1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_4_3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_1_1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_0_11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_14_5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_14</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_13_13</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_7_11</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_7</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_6_2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_8_9</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_8</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_3_14</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_11_9</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atribut_4_12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Atribut_3_3</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tabel_3</t>
         </is>

--- a/Relasi.xlsx
+++ b/Relasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_12_10</t>
+          <t xml:space="preserve"> Atribut_4_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_10</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
     </row>
@@ -481,17 +481,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_14_0</t>
+          <t xml:space="preserve"> Atribut_0_6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_14</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_6</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_9</t>
+          <t xml:space="preserve"> Atribut_4_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_9</t>
+          <t xml:space="preserve"> Tabel_4</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_8_4</t>
+          <t xml:space="preserve"> Atribut_6_0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_8</t>
+          <t xml:space="preserve"> Tabel_6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_9_2</t>
+          <t xml:space="preserve"> Atribut_9_5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_12_13</t>
+          <t xml:space="preserve"> Atribut_1_2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_13</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_11_4</t>
+          <t xml:space="preserve"> Atribut_2_0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_11</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_4_4</t>
+          <t xml:space="preserve"> Atribut_4_7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_7</t>
         </is>
       </c>
     </row>
@@ -621,17 +621,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_10_14</t>
+          <t xml:space="preserve"> Atribut_1_5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_10</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_14</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_12</t>
+          <t xml:space="preserve"> Atribut_2_3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_2_14</t>
+          <t xml:space="preserve"> Atribut_3_1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_14</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_7_1</t>
+          <t xml:space="preserve"> Atribut_2_6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_7</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_6</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_5_13</t>
+          <t xml:space="preserve"> Atribut_8_2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_5</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_13</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_9_8</t>
+          <t xml:space="preserve"> Atribut_9_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_8</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_1_8</t>
+          <t xml:space="preserve"> Atribut_5_8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,17 +761,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_8_2</t>
+          <t xml:space="preserve"> Atribut_1_0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_8</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_10_9</t>
+          <t xml:space="preserve"> Atribut_3_7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_10</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_9</t>
+          <t xml:space="preserve"> Tabel_7</t>
         </is>
       </c>
     </row>
@@ -801,17 +801,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_5_5</t>
+          <t xml:space="preserve"> Atribut_9_3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_5</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_5</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_11_13</t>
+          <t xml:space="preserve"> Atribut_2_1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_11</t>
+          <t xml:space="preserve"> Tabel_2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_13</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_6_9</t>
+          <t xml:space="preserve"> Atribut_6_4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_9</t>
+          <t xml:space="preserve"> Tabel_4</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_14_12</t>
+          <t xml:space="preserve"> Atribut_6_8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_14</t>
+          <t xml:space="preserve"> Tabel_6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_2_9</t>
+          <t xml:space="preserve"> Atribut_3_5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_9</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_13_12</t>
+          <t xml:space="preserve"> Atribut_0_8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_13</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_7_10</t>
+          <t xml:space="preserve"> Atribut_8_3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_7</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_10</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_6_1</t>
+          <t xml:space="preserve"> Atribut_9_1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_6</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_12_3</t>
+          <t xml:space="preserve"> Atribut_5_6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_3</t>
+          <t xml:space="preserve"> Tabel_6</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_2_12</t>
+          <t xml:space="preserve"> Atribut_4_3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_12</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_4_8</t>
+          <t xml:space="preserve"> Atribut_7_8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_7</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_2</t>
+          <t xml:space="preserve"> Atribut_5_9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_2</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_1_6</t>
+          <t xml:space="preserve"> Atribut_8_9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_1</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_6</t>
+          <t xml:space="preserve"> Tabel_9</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_8_11</t>
+          <t xml:space="preserve"> Atribut_7_0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_8</t>
+          <t xml:space="preserve"> Tabel_7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_11</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_9_9</t>
+          <t xml:space="preserve"> Atribut_9_7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_9</t>
+          <t xml:space="preserve"> Tabel_7</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_5_14</t>
+          <t xml:space="preserve"> Atribut_3_0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_5</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_14</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_13_4</t>
+          <t xml:space="preserve"> Atribut_0_3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_13</t>
+          <t xml:space="preserve"> Tabel_0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_3_13</t>
+          <t xml:space="preserve"> Atribut_7_3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Tabel_7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Tabel_3</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_13</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1161,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_4_11</t>
+          <t xml:space="preserve"> Atribut_8_1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_4</t>
+          <t xml:space="preserve"> Tabel_8</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_11</t>
+          <t xml:space="preserve"> Tabel_1</t>
         </is>
       </c>
     </row>
@@ -1181,295 +1181,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atribut_0_5</t>
+          <t xml:space="preserve"> Atribut_3_3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabel_0</t>
+          <t xml:space="preserve"> Tabel_3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_10_10</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_10</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_9_1</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_9</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_4_3</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_4</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_1_1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_0_11</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_0</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_11</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_14_5</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_14</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_13_13</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_13</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_13</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_7_11</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_7</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_6_2</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_6</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_8_9</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_8</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_3_14</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_3</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_14</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_11_9</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_11</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_4_12</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_4</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_12</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Atribut_3_3</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_3</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tabel_3</t>
         </is>
